--- a/examples/sources/data/unsolved/to_schedule/2019-03-18.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-18.xlsx
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
         <v>43542</v>
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
         <v>43542</v>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="2">
         <v>43542</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2">
         <v>43542</v>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2">
         <v>43542</v>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="2">
         <v>43542</v>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" s="2">
         <v>43542</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145">
         <v>1</v>
